--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\tpWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\TPWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Voir la liste de toutes les catégories</t>
   </si>
@@ -56,13 +56,22 @@
     <t>christopher</t>
   </si>
   <si>
-    <t>les 3 + chrisx2</t>
-  </si>
-  <si>
     <t>Problème?</t>
   </si>
   <si>
     <t>Changer les petite photo dans le drawer</t>
+  </si>
+  <si>
+    <t>Ajouter dans API une route pour avoir la liste des livre d'une catégorie</t>
+  </si>
+  <si>
+    <t>Ajouter dans API les images de livre</t>
+  </si>
+  <si>
+    <t>christopher + tristan</t>
+  </si>
+  <si>
+    <t>chris</t>
   </si>
 </sst>
 </file>
@@ -380,21 +389,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -402,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -426,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -434,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -455,10 +464,26 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\tpWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TPWEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Voir la liste de toutes les catégories</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Changer les petite photo dans le drawer</t>
+  </si>
+  <si>
+    <t>je sais pas quoi faire help!</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,6 +447,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
